--- a/NOTAM_table.xlsx
+++ b/NOTAM_table.xlsx
@@ -5,25 +5,434 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workstation\data\NOTAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\personal\python\NOTAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C730D63-969A-4999-A03D-D1B093094978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE1CC2-131B-4BC6-AF64-793ED452FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words_list" sheetId="1" r:id="rId1"/>
     <sheet name="base_rules" sheetId="2" r:id="rId2"/>
-    <sheet name="entity_list" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="limit_list" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="entity_list" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="limit_list" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>ACTIVATE</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
+  </si>
+  <si>
+    <t>黄色：表示已维护</t>
+  </si>
+  <si>
+    <t>ADVISED</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>无填充：新增词/词组</t>
+  </si>
+  <si>
+    <t>APCH</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>APV</t>
+  </si>
+  <si>
+    <t>WHEN</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>FOLLOWING CONDITIONS</t>
+  </si>
+  <si>
+    <t>AVBL</t>
+  </si>
+  <si>
+    <t>FLW LIMITATIONS</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>IN CASE OF</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>ARR/DEP</t>
+  </si>
+  <si>
+    <t>CLSD</t>
+  </si>
+  <si>
+    <t>CNL</t>
+  </si>
+  <si>
+    <t>REOPENING RESERVED</t>
+  </si>
+  <si>
+    <t>DAMAGED</t>
+  </si>
+  <si>
+    <t>ALL FLIGHT OPERATIONS</t>
+  </si>
+  <si>
+    <t>DECREASE</t>
+  </si>
+  <si>
+    <t>FALSE INDICATIONS</t>
+  </si>
+  <si>
+    <t>DECREASED</t>
+  </si>
+  <si>
+    <t>OPERATIONS ARE GRANTED</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>ARR WITH</t>
+  </si>
+  <si>
+    <t>DETERIORATES</t>
+  </si>
+  <si>
+    <t>JUSTIFIABLE</t>
+  </si>
+  <si>
+    <t>DISPLACED</t>
+  </si>
+  <si>
+    <t>SPECIAL PERMISSION</t>
+  </si>
+  <si>
+    <t>DOWNGRADED</t>
+  </si>
+  <si>
+    <t>OPS ON</t>
+  </si>
+  <si>
+    <t>LOWERED</t>
+  </si>
+  <si>
+    <t>RMK</t>
+  </si>
+  <si>
+    <t>FLTCK</t>
+  </si>
+  <si>
+    <t>RESTRICTIANS</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>HLDG</t>
+  </si>
+  <si>
+    <t>INSTALLED</t>
+  </si>
+  <si>
+    <t>JOINTS</t>
+  </si>
+  <si>
+    <t>LIMITED</t>
+  </si>
+  <si>
+    <t>LOCATED</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>MARKING</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>NARROWED</t>
+  </si>
+  <si>
+    <t>OPENED</t>
+  </si>
+  <si>
+    <t>OPERATE</t>
+  </si>
+  <si>
+    <t>OPERATING</t>
+  </si>
+  <si>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>PERMITTED</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>PROHIBITED</t>
+  </si>
+  <si>
+    <t>PROVIDED</t>
+  </si>
+  <si>
+    <t>REDUCED</t>
+  </si>
+  <si>
+    <t>REMAINING</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>SLIPPERY</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>SUPERSEDED</t>
+  </si>
+  <si>
+    <t>TURN</t>
+  </si>
+  <si>
+    <t>U/S</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
+  </si>
+  <si>
+    <t>UNGROOVED</t>
+  </si>
+  <si>
+    <t>UNLIT</t>
+  </si>
+  <si>
+    <t>UNSERVICEABLE</t>
+  </si>
+  <si>
+    <t>UNSTABLE</t>
+  </si>
+  <si>
+    <t>UNUSABLE</t>
+  </si>
+  <si>
+    <t>USABLE</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>VHHH</t>
+  </si>
+  <si>
+    <t>WITHDRAWN</t>
+  </si>
+  <si>
+    <t>ARE REQ</t>
+  </si>
+  <si>
+    <t>ARE REQUIRED</t>
+  </si>
+  <si>
+    <t>IS BELOW</t>
+  </si>
+  <si>
+    <t>IS CNL</t>
+  </si>
+  <si>
+    <t>IS PERMITTED</t>
+  </si>
+  <si>
+    <t>IS PROHIBITED</t>
+  </si>
+  <si>
+    <t>IS RECOMMENDED</t>
+  </si>
+  <si>
+    <t>IS USED</t>
+  </si>
+  <si>
+    <t>MUST OBTAIN</t>
+  </si>
+  <si>
+    <t>MUST PERFORM</t>
+  </si>
+  <si>
+    <t>NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>NOT AUTH</t>
+  </si>
+  <si>
+    <t>NOT AUTHORIZATION</t>
+  </si>
+  <si>
+    <t>NOT AVAILABLE</t>
+  </si>
+  <si>
+    <t>NOT AVBL</t>
+  </si>
+  <si>
+    <t>NOT OPR</t>
+  </si>
+  <si>
+    <t>NOT PERMITTED</t>
+  </si>
+  <si>
+    <t>NOT PROVIDED</t>
+  </si>
+  <si>
+    <t>NOT STD</t>
+  </si>
+  <si>
+    <t>NOT USEABLE</t>
+  </si>
+  <si>
+    <t>SHALL USED</t>
+  </si>
+  <si>
+    <t>STRENGTH DECREASED</t>
+  </si>
+  <si>
+    <t>STRENGTH LOWERED</t>
+  </si>
+  <si>
+    <t>SWITCHED OFF</t>
+  </si>
+  <si>
+    <t>TEMPO MOVED</t>
+  </si>
+  <si>
+    <t>TEMPO SHUTDOWN</t>
+  </si>
+  <si>
+    <t>WILL FOLLOW</t>
+  </si>
+  <si>
+    <t>WILL VACATE</t>
+  </si>
+  <si>
+    <t>CAN BE REACTIVATED</t>
+  </si>
+  <si>
+    <t>CAN BE USED</t>
+  </si>
+  <si>
+    <t>COULD BE USE</t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>EVERY SECOND WORK</t>
+  </si>
+  <si>
+    <t>EVERY SECOND WORKING</t>
+  </si>
+  <si>
+    <t>MAY BE RADIATING</t>
+  </si>
+  <si>
+    <t>OUT OF SER</t>
+  </si>
+  <si>
+    <t>OUT OF SERVICE</t>
+  </si>
+  <si>
+    <t>SHALL BE USED</t>
+  </si>
+  <si>
+    <t>SHALL NOT BE USED</t>
+  </si>
+  <si>
+    <t>LIABLE TO BE SLIPPERY</t>
+  </si>
+  <si>
+    <t>WAS CARRIED OUT</t>
+  </si>
+  <si>
+    <t>WILL BE CLOSED</t>
+  </si>
+  <si>
+    <t>WILL BE NOTIFIED</t>
+  </si>
+  <si>
+    <t>WILL BE USED</t>
+  </si>
+  <si>
+    <t>IS ONLY PERMITTED</t>
+  </si>
+  <si>
+    <t>IS CNL AND VHHH</t>
+  </si>
+  <si>
+    <t>NO TOUCH AND GO</t>
+  </si>
+  <si>
+    <t>NOT BE USED</t>
+  </si>
+  <si>
+    <t>START OF TKOF AND MARKED</t>
+  </si>
+  <si>
+    <t>WILL NOT BE AVBL</t>
+  </si>
+  <si>
+    <t>APCH OR STRAIGHT-OUT</t>
+  </si>
+  <si>
+    <t>TAXI ONLY</t>
+  </si>
+  <si>
+    <t>UNDER MAINTENANCE</t>
+  </si>
+  <si>
+    <t>PART DAMAGED</t>
+  </si>
+  <si>
+    <t>WILL TAKE PLACE</t>
+  </si>
+  <si>
+    <t>WILL NOT BE ACCEPTED</t>
+  </si>
   <si>
     <t>ENTITY</t>
   </si>
@@ -64,6 +473,9 @@
     <t>NOTAM</t>
   </si>
   <si>
+    <t>ONLY</t>
+  </si>
+  <si>
     <t>RULES</t>
   </si>
   <si>
@@ -86,369 +498,6 @@
   </si>
   <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>LIMIT</t>
-  </si>
-  <si>
-    <t>EXCEPT</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>WHEN</t>
-  </si>
-  <si>
-    <t>FOLLOWING CONDITIONS</t>
-  </si>
-  <si>
-    <t>ONLY</t>
-  </si>
-  <si>
-    <t>FLW LIMITATIONS</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>ACTIVATE</t>
-  </si>
-  <si>
-    <t>黄色：表示已维护</t>
-  </si>
-  <si>
-    <t>ADVISED</t>
-  </si>
-  <si>
-    <t>无填充：新增词/词组</t>
-  </si>
-  <si>
-    <t>APCH</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>APV</t>
-  </si>
-  <si>
-    <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>AVBL</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>IN CASE OF</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>ARR/DEP</t>
-  </si>
-  <si>
-    <t>CLSD</t>
-  </si>
-  <si>
-    <t>CNL</t>
-  </si>
-  <si>
-    <t>DAMAGED</t>
-  </si>
-  <si>
-    <t>DECREASE</t>
-  </si>
-  <si>
-    <t>DECREASED</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>DETERIORATES</t>
-  </si>
-  <si>
-    <t>DISPLACED</t>
-  </si>
-  <si>
-    <t>DOWNGRADED</t>
-  </si>
-  <si>
-    <t>LOWERED</t>
-  </si>
-  <si>
-    <t>FLTCK</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>HLDG</t>
-  </si>
-  <si>
-    <t>INSTALLED</t>
-  </si>
-  <si>
-    <t>JOINTS</t>
-  </si>
-  <si>
-    <t>LIMITED</t>
-  </si>
-  <si>
-    <t>LOCATED</t>
-  </si>
-  <si>
-    <t>LTD</t>
-  </si>
-  <si>
-    <t>MARKING</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t>MISSING</t>
-  </si>
-  <si>
-    <t>NARROWED</t>
-  </si>
-  <si>
-    <t>OPENED</t>
-  </si>
-  <si>
-    <t>OPERATE</t>
-  </si>
-  <si>
-    <t>OPERATING</t>
-  </si>
-  <si>
-    <t>OPR</t>
-  </si>
-  <si>
-    <t>PERMITTED</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>PROHIBITED</t>
-  </si>
-  <si>
-    <t>PROVIDED</t>
-  </si>
-  <si>
-    <t>REDUCED</t>
-  </si>
-  <si>
-    <t>REMAINING</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>RESTRICTED</t>
-  </si>
-  <si>
-    <t>SLIPPERY</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>SUPERSEDED</t>
-  </si>
-  <si>
-    <t>TURN</t>
-  </si>
-  <si>
-    <t>U/S</t>
-  </si>
-  <si>
-    <t>UNAVAILABLE</t>
-  </si>
-  <si>
-    <t>UNGROOVED</t>
-  </si>
-  <si>
-    <t>UNLIT</t>
-  </si>
-  <si>
-    <t>UNSERVICEABLE</t>
-  </si>
-  <si>
-    <t>UNSTABLE</t>
-  </si>
-  <si>
-    <t>UNUSABLE</t>
-  </si>
-  <si>
-    <t>USABLE</t>
-  </si>
-  <si>
-    <t>USED</t>
-  </si>
-  <si>
-    <t>VHHH</t>
-  </si>
-  <si>
-    <t>WITHDRAWN</t>
-  </si>
-  <si>
-    <t>ARE REQ</t>
-  </si>
-  <si>
-    <t>ARE REQUIRED</t>
-  </si>
-  <si>
-    <t>IS BELOW</t>
-  </si>
-  <si>
-    <t>IS CNL</t>
-  </si>
-  <si>
-    <t>IS PERMITTED</t>
-  </si>
-  <si>
-    <t>IS PROHIBITED</t>
-  </si>
-  <si>
-    <t>IS RECOMMENDED</t>
-  </si>
-  <si>
-    <t>IS USED</t>
-  </si>
-  <si>
-    <t>MUST OBTAIN</t>
-  </si>
-  <si>
-    <t>MUST PERFORM</t>
-  </si>
-  <si>
-    <t>NOT ALLOWED</t>
-  </si>
-  <si>
-    <t>NOT AUTH</t>
-  </si>
-  <si>
-    <t>NOT AUTHORIZATION</t>
-  </si>
-  <si>
-    <t>NOT AVAILABLE</t>
-  </si>
-  <si>
-    <t>NOT AVBL</t>
-  </si>
-  <si>
-    <t>NOT OPR</t>
-  </si>
-  <si>
-    <t>NOT PERMITTED</t>
-  </si>
-  <si>
-    <t>NOT PROVIDED</t>
-  </si>
-  <si>
-    <t>NOT STD</t>
-  </si>
-  <si>
-    <t>NOT USEABLE</t>
-  </si>
-  <si>
-    <t>SHALL USED</t>
-  </si>
-  <si>
-    <t>STRENGTH DECREASED</t>
-  </si>
-  <si>
-    <t>STRENGTH LOWERED</t>
-  </si>
-  <si>
-    <t>SWITCHED OFF</t>
-  </si>
-  <si>
-    <t>TEMPO MOVED</t>
-  </si>
-  <si>
-    <t>TEMPO SHUTDOWN</t>
-  </si>
-  <si>
-    <t>WILL FOLLOW</t>
-  </si>
-  <si>
-    <t>WILL VACATE</t>
-  </si>
-  <si>
-    <t>CAN BE REACTIVATED</t>
-  </si>
-  <si>
-    <t>CAN BE USED</t>
-  </si>
-  <si>
-    <t>COULD BE USE</t>
-  </si>
-  <si>
-    <t>DO NOT USE</t>
-  </si>
-  <si>
-    <t>EVERY SECOND WORK</t>
-  </si>
-  <si>
-    <t>EVERY SECOND WORKING</t>
-  </si>
-  <si>
-    <t>MAY BE RADIATING</t>
-  </si>
-  <si>
-    <t>OUT OF SER</t>
-  </si>
-  <si>
-    <t>OUT OF SERVICE</t>
-  </si>
-  <si>
-    <t>SHALL BE USED</t>
-  </si>
-  <si>
-    <t>SHALL NOT BE USED</t>
-  </si>
-  <si>
-    <t>LIABLE TO BE SLIPPERY</t>
-  </si>
-  <si>
-    <t>WAS CARRIED OUT</t>
-  </si>
-  <si>
-    <t>WILL BE CLOSED</t>
-  </si>
-  <si>
-    <t>WILL BE NOTIFIED</t>
-  </si>
-  <si>
-    <t>WILL BE USED</t>
-  </si>
-  <si>
-    <t>IS ONLY PERMITTED</t>
-  </si>
-  <si>
-    <t>IS CNL AND VHHH</t>
-  </si>
-  <si>
-    <t>NO TOUCH AND GO</t>
-  </si>
-  <si>
-    <t>NOT BE USED</t>
-  </si>
-  <si>
-    <t>START OF TKOF AND MARKED</t>
-  </si>
-  <si>
-    <t>WILL NOT BE AVBL</t>
   </si>
   <si>
     <r>
@@ -572,78 +621,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(?=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;entity_supply&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,7 +667,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>?P&lt;action&gt;</t>
+      <t>?P&lt;reason&gt;</t>
     </r>
     <r>
       <rPr>
@@ -734,7 +711,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
+        <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -743,56 +720,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;reason&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>)(?P&lt;limit&gt;.*)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,11 +741,65 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{0}</t>
+      <t>?P&lt;limit&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ONLY</t>
     </r>
     <r>
       <rPr>
@@ -822,7 +808,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>)(?P&lt;limit&gt;.*)</t>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,7 +829,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>FOR</t>
+      <t>ONLY FOR</t>
     </r>
     <r>
       <rPr>
@@ -889,15 +875,6 @@
         <charset val="134"/>
       </rPr>
       <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ONLY</t>
     </r>
     <r>
       <rPr>
@@ -923,20 +900,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ONLY FOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+        <color rgb="FF569CD6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
@@ -945,45 +913,13 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;limit&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>)(?P&lt;source&gt;.*)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EXC </t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -998,11 +934,56 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{0}</t>
+      <t>?P&lt;action&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -1011,16 +992,92 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>)(?P&lt;source&gt;.*)</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?P&lt;entity_supply&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDER FOLLOWING CONDITIONS</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1120,42 +1177,58 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1228,38 +1301,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,10 +1687,10 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -1617,1172 +1699,1210 @@
     <col min="6" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="8" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="8" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="8" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="8" t="s">
+      <c r="B21" s="12"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="8" t="s">
+      <c r="B22" s="12"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="8" t="s">
+      <c r="B23" s="12"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="8" t="s">
+      <c r="B24" s="12"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="8" t="s">
+      <c r="B25" s="12"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5">
+      <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="8" t="s">
+      <c r="B26" s="12"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5">
+      <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="8" t="s">
+      <c r="B27" s="12"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="8" t="s">
+      <c r="B28" s="12"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="8" t="s">
+      <c r="B29" s="12"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="8" t="s">
+      <c r="B30" s="12"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5">
+      <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="8" t="s">
+      <c r="B31" s="12"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5">
+      <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="8" t="s">
+      <c r="B32" s="12"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5">
+      <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="8" t="s">
+      <c r="B33" s="12"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5">
+      <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="8" t="s">
+      <c r="B34" s="12"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5">
+      <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="8" t="s">
+      <c r="B35" s="12"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="8" t="s">
+      <c r="B36" s="12"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5">
+      <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="8" t="s">
+      <c r="B37" s="12"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5">
+      <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="8" t="s">
+      <c r="B38" s="12"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5">
+      <c r="A39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="8" t="s">
+      <c r="B39" s="12"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5">
+      <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="8" t="s">
+      <c r="B40" s="12"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5">
+      <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="8" t="s">
+      <c r="B41" s="12"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5">
+      <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="8" t="s">
+      <c r="B42" s="12"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="8" t="s">
+      <c r="B43" s="12"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="8" t="s">
+      <c r="B44" s="12"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5">
+      <c r="A45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="8" t="s">
+      <c r="B45" s="12"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5">
+      <c r="A46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="8" t="s">
+      <c r="B46" s="12"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5">
+      <c r="A47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="8" t="s">
+      <c r="B47" s="12"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5">
+      <c r="A48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="8" t="s">
+      <c r="B48" s="12"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5">
+      <c r="A49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="8" t="s">
+      <c r="B49" s="12"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5">
+      <c r="A50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="8" t="s">
+      <c r="B50" s="12"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5">
+      <c r="A51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="8" t="s">
+      <c r="B51" s="12"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5">
+      <c r="A52" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="8" t="s">
+      <c r="B52" s="12"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5">
+      <c r="A53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="8" t="s">
+      <c r="B53" s="12"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5">
+      <c r="A54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="8" t="s">
+      <c r="B54" s="12"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5">
+      <c r="A55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="8" t="s">
+      <c r="B55" s="12"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5">
+      <c r="A56" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="8" t="s">
+      <c r="B56" s="12"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5">
+      <c r="A57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="8" t="s">
+      <c r="B57" s="12"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5">
+      <c r="A58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="8" t="s">
+      <c r="B58" s="12"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
+      <c r="A59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="8" t="s">
+      <c r="B59" s="12"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5">
+      <c r="A60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="8" t="s">
+      <c r="B60" s="12"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5">
+      <c r="A61" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="8" t="s">
+      <c r="B61" s="12"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5">
+      <c r="A62" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="8" t="s">
+      <c r="B62" s="12"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5">
+      <c r="A63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="8" t="s">
+      <c r="B63" s="12"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5">
+      <c r="A64" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="8" t="s">
+      <c r="B64" s="12"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5">
+      <c r="A65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="8" t="s">
+      <c r="B65" s="12"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5">
+      <c r="A66" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="8" t="s">
+      <c r="B66" s="12"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5">
+      <c r="A67" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="8" t="s">
+      <c r="B67" s="12"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5">
+      <c r="A68" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="8" t="s">
+      <c r="B68" s="12"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5">
+      <c r="A69" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="8" t="s">
+      <c r="B69" s="12"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5">
+      <c r="A70" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="8" t="s">
+      <c r="B70" s="12"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5">
+      <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="8" t="s">
+      <c r="B71" s="12"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5">
+      <c r="A72" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="8" t="s">
+      <c r="B72" s="12"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5">
+      <c r="A73" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="8" t="s">
+      <c r="B73" s="12"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5">
+      <c r="A74" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="8" t="s">
+      <c r="B74" s="12"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5">
+      <c r="A75" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="8" t="s">
+      <c r="B75" s="12"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.5">
+      <c r="A76" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="8" t="s">
+      <c r="B76" s="12"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5">
+      <c r="A77" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="8" t="s">
+      <c r="B77" s="12"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5">
+      <c r="A78" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="8" t="s">
+      <c r="B78" s="12"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5">
+      <c r="A79" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="8" t="s">
+      <c r="B79" s="12"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5">
+      <c r="A80" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="8" t="s">
+      <c r="B80" s="12"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5">
+      <c r="A81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="8" t="s">
+      <c r="B81" s="12"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5">
+      <c r="A82" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="8" t="s">
+      <c r="B82" s="12"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5">
+      <c r="A83" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="8" t="s">
+      <c r="B83" s="12"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.5">
+      <c r="A84" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="8" t="s">
+      <c r="B84" s="12"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.5">
+      <c r="A85" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="8" t="s">
+      <c r="B85" s="12"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5">
+      <c r="A86" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="8" t="s">
+      <c r="B86" s="12"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5">
+      <c r="A87" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="8" t="s">
+      <c r="B87" s="12"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5">
+      <c r="A88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="8" t="s">
+      <c r="B88" s="12"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5">
+      <c r="A89" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="8" t="s">
+      <c r="B89" s="12"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5">
+      <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="8" t="s">
+      <c r="B90" s="12"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5">
+      <c r="A91" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="8" t="s">
+      <c r="B91" s="12"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5">
+      <c r="A92" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="8" t="s">
+      <c r="B92" s="12"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5">
+      <c r="A93" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="8" t="s">
+      <c r="B93" s="12"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5">
+      <c r="A94" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="8" t="s">
+      <c r="B94" s="12"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5">
+      <c r="A95" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="8" t="s">
+      <c r="B95" s="12"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5">
+      <c r="A96" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="8" t="s">
+      <c r="B96" s="12"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.5">
+      <c r="A97" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="8" t="s">
+      <c r="B97" s="12"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="16.5">
+      <c r="A98" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="8" t="s">
+      <c r="B98" s="12"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.5">
+      <c r="A99" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="8" t="s">
+      <c r="B99" s="12"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5">
+      <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="8" t="s">
+      <c r="B100" s="12"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5">
+      <c r="A101" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="8" t="s">
+      <c r="B101" s="12"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5">
+      <c r="A102" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="8" t="s">
+      <c r="B102" s="12"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5">
+      <c r="A103" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="8" t="s">
+      <c r="B103" s="12"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5">
+      <c r="A104" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="8" t="s">
+      <c r="B104" s="12"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5">
+      <c r="A105" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5">
+      <c r="A106" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="8" t="s">
+      <c r="B106" s="12"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5">
+      <c r="A107" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="8" t="s">
+      <c r="B107" s="12"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5">
+      <c r="A108" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="8" t="s">
+      <c r="B108" s="12"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5">
+      <c r="A109" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="8" t="s">
+      <c r="B109" s="12"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5">
+      <c r="A110" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="8" t="s">
+      <c r="B110" s="12"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5">
+      <c r="A111" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="8" t="s">
+      <c r="B111" s="12"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5">
+      <c r="A112" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="8" t="s">
+      <c r="B112" s="12"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5">
+      <c r="A113" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="8" t="s">
+      <c r="B113" s="12"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5">
+      <c r="A114" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="8" t="s">
+      <c r="B114" s="12"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5">
+      <c r="A115" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="A103" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" ht="15">
-      <c r="A104" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" ht="15">
-      <c r="A105" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" ht="15">
-      <c r="A106" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" ht="15">
-      <c r="A107" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="10"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" ht="15">
-      <c r="A108" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B108" s="10"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" ht="15">
-      <c r="A109" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B109" s="10"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" ht="15">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" ht="15">
-      <c r="B111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" ht="15">
-      <c r="B112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="2:5" ht="15">
-      <c r="B113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="2:5" ht="15">
-      <c r="B114" s="1"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="2:5" ht="15">
-      <c r="B115" s="1"/>
+      <c r="B115" s="12"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="2:5" ht="15">
+    <row r="116" spans="1:5" ht="16.5">
       <c r="B116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="2:5" ht="15">
+    <row r="117" spans="1:5" ht="16.5">
       <c r="B117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="2:5" ht="15">
+    <row r="118" spans="1:5" ht="16.5">
       <c r="B118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="2:5" ht="15">
+    <row r="119" spans="1:5" ht="16.5">
       <c r="B119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="2:5" ht="15">
+    <row r="120" spans="1:5" ht="16.5">
       <c r="B120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="2:5" ht="15">
+    <row r="121" spans="1:5" ht="16.5">
       <c r="B121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="2:5" ht="15">
+    <row r="122" spans="1:5" ht="16.5">
       <c r="B122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:5" ht="15">
+    <row r="123" spans="1:5" ht="16.5">
       <c r="B123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="2:5" ht="15">
+    <row r="124" spans="1:5" ht="16.5">
       <c r="B124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="2:5" ht="15">
+    <row r="125" spans="1:5" ht="16.5">
       <c r="B125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="2:5" ht="15">
+    <row r="126" spans="1:5" ht="16.5">
       <c r="B126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="2:5" ht="15">
+    <row r="127" spans="1:5" ht="16.5">
       <c r="B127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="2:5" ht="15">
+    <row r="128" spans="1:5" ht="16.5">
       <c r="B128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="2:5" ht="15">
+    <row r="129" spans="2:5" ht="16.5">
       <c r="B129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="2:5" ht="15">
+    <row r="130" spans="2:5" ht="16.5">
       <c r="B130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" ht="15">
+    <row r="131" spans="2:5" ht="16.5">
       <c r="B131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:5" ht="15">
+    <row r="132" spans="2:5" ht="16.5">
       <c r="B132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:5" ht="15">
+    <row r="133" spans="2:5" ht="16.5">
       <c r="B133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:5" ht="15">
+    <row r="134" spans="2:5" ht="16.5">
       <c r="B134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="2:5" ht="15">
+    <row r="135" spans="2:5" ht="16.5">
       <c r="B135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="2:5" ht="15">
+    <row r="136" spans="2:5" ht="16.5">
       <c r="B136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="2:5" ht="15">
+    <row r="137" spans="2:5" ht="16.5">
       <c r="B137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="2:5" ht="15">
+    <row r="138" spans="2:5" ht="16.5">
       <c r="B138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="2:5" ht="15">
+    <row r="139" spans="2:5" ht="16.5">
       <c r="B139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="2:5" ht="15">
+    <row r="140" spans="2:5" ht="16.5">
       <c r="B140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" ht="15">
+    <row r="141" spans="2:5" ht="16.5">
       <c r="B141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="2:5" ht="15">
+    <row r="142" spans="2:5" ht="16.5">
       <c r="B142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="2:5" ht="15">
+    <row r="143" spans="2:5" ht="16.5">
       <c r="B143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="2:5" ht="15">
+    <row r="144" spans="2:5" ht="16.5">
       <c r="B144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:5" ht="15">
+    <row r="145" spans="2:5" ht="16.5">
       <c r="B145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:5" ht="15">
+    <row r="146" spans="2:5" ht="16.5">
       <c r="B146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="2:5" ht="15">
+    <row r="147" spans="2:5" ht="16.5">
       <c r="B147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="2:5" ht="15">
+    <row r="148" spans="2:5" ht="16.5">
       <c r="B148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:5" ht="15">
+    <row r="149" spans="2:5" ht="16.5">
       <c r="B149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="2:5" ht="15">
+    <row r="150" spans="2:5" ht="16.5">
       <c r="B150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="2:5" ht="15">
+    <row r="151" spans="2:5" ht="16.5">
       <c r="B151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="2:5" ht="15">
+    <row r="152" spans="2:5" ht="16.5">
       <c r="B152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:5" ht="15">
+    <row r="153" spans="2:5" ht="16.5">
       <c r="B153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="2:5" ht="15">
+    <row r="154" spans="2:5" ht="16.5">
       <c r="B154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="2:5" ht="15">
+    <row r="155" spans="2:5" ht="16.5">
       <c r="B155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="2:5" ht="15">
+    <row r="156" spans="2:5" ht="16.5">
       <c r="B156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="2:5" ht="15">
+    <row r="157" spans="2:5" ht="16.5">
       <c r="B157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="2:5" ht="15">
+    <row r="158" spans="2:5" ht="16.5">
       <c r="B158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" ht="15">
+    <row r="159" spans="2:5" ht="16.5">
       <c r="B159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="2:5" ht="15">
+    <row r="160" spans="2:5" ht="16.5">
       <c r="B160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="2:5" ht="15">
+    <row r="161" spans="2:5" ht="16.5">
       <c r="B161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="2:5" ht="15">
+    <row r="162" spans="2:5" ht="16.5">
       <c r="B162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="2:5" ht="15">
+    <row r="163" spans="2:5" ht="16.5">
       <c r="B163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="2:5" ht="15">
+    <row r="164" spans="2:5" ht="16.5">
       <c r="B164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="2:5" ht="15">
+    <row r="165" spans="2:5" ht="16.5">
       <c r="B165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="2:5" ht="15">
+    <row r="166" spans="2:5" ht="16.5">
       <c r="B166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="2:5" ht="15">
+    <row r="167" spans="2:5" ht="16.5">
       <c r="B167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="2:5" ht="15">
+    <row r="168" spans="2:5" ht="16.5">
       <c r="B168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="2:5" ht="15">
+    <row r="169" spans="2:5" ht="16.5">
       <c r="B169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="2:5" ht="15">
+    <row r="170" spans="2:5" ht="16.5">
       <c r="B170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="2:5" ht="15">
+    <row r="171" spans="2:5" ht="16.5">
       <c r="B171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="2:5" ht="15">
+    <row r="172" spans="2:5" ht="16.5">
       <c r="B172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="2:5" ht="15">
+    <row r="173" spans="2:5" ht="16.5">
       <c r="B173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="2:5" ht="15">
+    <row r="174" spans="2:5" ht="16.5">
       <c r="B174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="2:5" ht="15">
+    <row r="175" spans="2:5" ht="16.5">
       <c r="B175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="2:5" ht="15">
+    <row r="176" spans="2:5" ht="16.5">
       <c r="B176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="2:5" ht="15">
+    <row r="177" spans="2:5" ht="16.5">
       <c r="B177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="2:5" ht="15">
+    <row r="178" spans="2:5" ht="16.5">
       <c r="B178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="2:5" ht="15">
+    <row r="179" spans="2:5" ht="16.5">
       <c r="B179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="2:5" ht="15">
+    <row r="180" spans="2:5" ht="16.5">
       <c r="B180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="2:5" ht="15">
+    <row r="181" spans="2:5" ht="16.5">
       <c r="B181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="2:5" ht="15">
+    <row r="182" spans="2:5" ht="16.5">
       <c r="B182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="2:5" ht="15">
+    <row r="183" spans="2:5" ht="16.5">
       <c r="B183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="2:5" ht="15">
+    <row r="184" spans="2:5" ht="16.5">
       <c r="B184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="2:5" ht="15">
+    <row r="185" spans="2:5" ht="16.5">
       <c r="B185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="2:5" ht="15">
+    <row r="186" spans="2:5" ht="16.5">
       <c r="B186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="2:5" ht="15">
+    <row r="187" spans="2:5" ht="16.5">
       <c r="B187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="2:5" ht="15">
+    <row r="188" spans="2:5" ht="16.5">
       <c r="B188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="2:5" ht="15">
+    <row r="189" spans="2:5" ht="16.5">
       <c r="B189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="2:5" ht="15">
+    <row r="190" spans="2:5" ht="16.5">
       <c r="B190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="2:5" ht="15">
+    <row r="191" spans="2:5" ht="16.5">
       <c r="B191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="2:5" ht="15">
+    <row r="192" spans="2:5" ht="16.5">
       <c r="B192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="2:5" ht="15">
+    <row r="193" spans="2:5" ht="16.5">
       <c r="B193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="2:5" ht="15">
+    <row r="194" spans="2:5" ht="16.5">
       <c r="B194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="2:5" ht="15">
+    <row r="195" spans="2:5" ht="16.5">
       <c r="B195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="2:5" ht="15">
+    <row r="196" spans="2:5" ht="16.5">
       <c r="B196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="2:5" ht="15">
+    <row r="197" spans="2:5" ht="16.5">
       <c r="B197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="2:5" ht="15">
+    <row r="198" spans="2:5" ht="16.5">
       <c r="B198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="2:5" ht="15">
+    <row r="199" spans="2:5" ht="16.5">
       <c r="B199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="2:5" ht="15">
+    <row r="200" spans="2:5" ht="16.5">
       <c r="B200" s="1"/>
       <c r="E200" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <autoFilter ref="A1:A115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2790,9 +2910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="86" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -2801,116 +2923,132 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
-      <c r="A3" s="5" t="s">
-        <v>143</v>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="26" width="14" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="11" width="12" customWidth="1"/>
@@ -2918,82 +3056,82 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="11" width="16" customWidth="1"/>
@@ -3001,41 +3139,41 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NOTAM_table.xlsx
+++ b/NOTAM_table.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\personal\python\NOTAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workstation\data\NOTAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE1CC2-131B-4BC6-AF64-793ED452FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EB498-F8B0-4580-8252-935C64C6DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words_list" sheetId="1" r:id="rId1"/>
     <sheet name="base_rules" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="supplement_rules" sheetId="3" r:id="rId3"/>
     <sheet name="entity_list" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="limit_list" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>RWY</t>
+  </si>
+  <si>
+    <t>RUNWAY</t>
+  </si>
+  <si>
+    <t>LIGHTS</t>
+  </si>
+  <si>
+    <t>RCLL</t>
+  </si>
+  <si>
+    <t>REDL</t>
+  </si>
+  <si>
+    <t>ILS CAT</t>
+  </si>
+  <si>
+    <t>ILS RWY</t>
+  </si>
+  <si>
+    <t>ILS RUNWAY</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>FLT CLBR</t>
+  </si>
+  <si>
+    <t>FLT</t>
+  </si>
+  <si>
+    <t>NOTAM</t>
+  </si>
   <si>
     <t>ACTION</t>
   </si>
@@ -38,466 +104,424 @@
     <t>ACTIVATE</t>
   </si>
   <si>
+    <t xml:space="preserve">EXCEPT </t>
+  </si>
+  <si>
+    <t>黄色：表示已维护</t>
+  </si>
+  <si>
+    <t>ADVISED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXC </t>
+  </si>
+  <si>
+    <t>无填充：新增词/词组</t>
+  </si>
+  <si>
+    <t>APV ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXP </t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN </t>
+  </si>
+  <si>
+    <t>AVBL</t>
+  </si>
+  <si>
+    <t>FOLLOWING CONDITIONS</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>FLW LIMITATIONS</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>IN CASE OF</t>
+  </si>
+  <si>
+    <t>CLSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR/DEP WITH </t>
+  </si>
+  <si>
+    <t>CNL</t>
+  </si>
+  <si>
+    <t>UNDER FOLLOWING CONDITIONS</t>
+  </si>
+  <si>
+    <t>DAMAGED</t>
+  </si>
+  <si>
+    <t>REOPENING RESERVED</t>
+  </si>
+  <si>
+    <t>DECREASE</t>
+  </si>
+  <si>
+    <t>ALL FLIGHT OPERATIONS</t>
+  </si>
+  <si>
+    <t>DECREASED</t>
+  </si>
+  <si>
+    <t>FALSE INDICATIONS</t>
+  </si>
+  <si>
+    <t>DEP ONLY</t>
+  </si>
+  <si>
+    <t>OPERATIONS ARE GRANTED</t>
+  </si>
+  <si>
+    <t>DETERIORATES</t>
+  </si>
+  <si>
+    <t>ARR WITH</t>
+  </si>
+  <si>
+    <t>DISPLACED</t>
+  </si>
+  <si>
+    <t>JUSTIFIABLE</t>
+  </si>
+  <si>
+    <t>DOWNGRADED</t>
+  </si>
+  <si>
+    <t>SPECIAL PERMISSION</t>
+  </si>
+  <si>
+    <t>LOWERED</t>
+  </si>
+  <si>
+    <t>OPS ON</t>
+  </si>
+  <si>
+    <t>FLTCK</t>
+  </si>
+  <si>
+    <t>RMK</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>RESTRICTIONS</t>
+  </si>
+  <si>
+    <t>HLDG</t>
+  </si>
+  <si>
+    <t>INSTALLED</t>
+  </si>
+  <si>
+    <t>LIMITED</t>
+  </si>
+  <si>
+    <t>LOCATED</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>MARKING</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>NARROWED</t>
+  </si>
+  <si>
+    <t>OPENED</t>
+  </si>
+  <si>
+    <t>OPERATE</t>
+  </si>
+  <si>
+    <t>OPERATING</t>
+  </si>
+  <si>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>PERMITTED</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>PROHIBITED</t>
+  </si>
+  <si>
+    <t>PROVIDED</t>
+  </si>
+  <si>
+    <t>REDUCED</t>
+  </si>
+  <si>
+    <t>REMAINING</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>SLIPPERY</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>SUPERSEDED</t>
+  </si>
+  <si>
+    <t>TURN</t>
+  </si>
+  <si>
+    <t>U/S</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
+  </si>
+  <si>
+    <t>UNGROOVED</t>
+  </si>
+  <si>
+    <t>UNLIT</t>
+  </si>
+  <si>
+    <t>UNSERVICEABLE</t>
+  </si>
+  <si>
+    <t>UNSTABLE</t>
+  </si>
+  <si>
+    <t>UNUSABLE</t>
+  </si>
+  <si>
+    <t>USABLE</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>VHHH</t>
+  </si>
+  <si>
+    <t>WITHDRAWN</t>
+  </si>
+  <si>
+    <t>ARE REQ</t>
+  </si>
+  <si>
+    <t>ARE REQUIRED</t>
+  </si>
+  <si>
+    <t>IS BELOW</t>
+  </si>
+  <si>
+    <t>IS CNL</t>
+  </si>
+  <si>
+    <t>IS PERMITTED</t>
+  </si>
+  <si>
+    <t>IS PROHIBITED</t>
+  </si>
+  <si>
+    <t>IS RECOMMENDED</t>
+  </si>
+  <si>
+    <t>IS USED</t>
+  </si>
+  <si>
+    <t>MUST OBTAIN</t>
+  </si>
+  <si>
+    <t>MUST PERFORM</t>
+  </si>
+  <si>
+    <t>NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>NOT AUTH</t>
+  </si>
+  <si>
+    <t>NOT AUTHORIZATION</t>
+  </si>
+  <si>
+    <t>NOT AVAILABLE</t>
+  </si>
+  <si>
+    <t>NOT AVBL</t>
+  </si>
+  <si>
+    <t>NOT OPR</t>
+  </si>
+  <si>
+    <t>NOT PERMITTED</t>
+  </si>
+  <si>
+    <t>NOT PROVIDED</t>
+  </si>
+  <si>
+    <t>NOT STD</t>
+  </si>
+  <si>
+    <t>NOT USEABLE</t>
+  </si>
+  <si>
+    <t>SHALL USED</t>
+  </si>
+  <si>
+    <t>STRENGTH DECREASED</t>
+  </si>
+  <si>
+    <t>STRENGTH LOWERED</t>
+  </si>
+  <si>
+    <t>SWITCHED OFF</t>
+  </si>
+  <si>
+    <t>TEMPO MOVED</t>
+  </si>
+  <si>
+    <t>TEMPO SHUTDOWN</t>
+  </si>
+  <si>
+    <t>WILL FOLLOW</t>
+  </si>
+  <si>
+    <t>WILL VACATE</t>
+  </si>
+  <si>
+    <t>CAN BE REACTIVATED</t>
+  </si>
+  <si>
+    <t>CAN BE USED</t>
+  </si>
+  <si>
+    <t>COULD BE USE</t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>EVERY SECOND WORK</t>
+  </si>
+  <si>
+    <t>EVERY SECOND WORKING</t>
+  </si>
+  <si>
+    <t>MAY BE RADIATING</t>
+  </si>
+  <si>
+    <t>OUT OF SER</t>
+  </si>
+  <si>
+    <t>OUT OF SERVICE</t>
+  </si>
+  <si>
+    <t>SHALL BE USED</t>
+  </si>
+  <si>
+    <t>SHALL NOT BE USED</t>
+  </si>
+  <si>
+    <t>LIABLE TO BE SLIPPERY</t>
+  </si>
+  <si>
+    <t>WAS CARRIED OUT</t>
+  </si>
+  <si>
+    <t>WILL BE CLOSED</t>
+  </si>
+  <si>
+    <t>WILL BE NOTIFIED</t>
+  </si>
+  <si>
+    <t>WILL BE USED</t>
+  </si>
+  <si>
+    <t>IS ONLY PERMITTED</t>
+  </si>
+  <si>
+    <t>IS CNL AND VHHH</t>
+  </si>
+  <si>
+    <t>NO TOUCH AND GO</t>
+  </si>
+  <si>
+    <t>NOT BE USED</t>
+  </si>
+  <si>
+    <t>START OF TKOF AND MARKED</t>
+  </si>
+  <si>
+    <t>WILL NOT BE AVBL</t>
+  </si>
+  <si>
+    <t>APCH OR STRAIGHT-OUT</t>
+  </si>
+  <si>
+    <t>TAXI ONLY</t>
+  </si>
+  <si>
+    <t>UNDER MAINTENANCE</t>
+  </si>
+  <si>
+    <t>PART DAMAGED</t>
+  </si>
+  <si>
+    <t>WILL TAKE PLACE</t>
+  </si>
+  <si>
+    <t>WILL NOT BE ACCEPTED</t>
+  </si>
+  <si>
+    <t>MOT AUTH</t>
+  </si>
+  <si>
+    <t>USEFUL ONLY</t>
+  </si>
+  <si>
+    <t>AVBL ONLY</t>
+  </si>
+  <si>
+    <t>APCH ONLY</t>
+  </si>
+  <si>
+    <t>ARR ONLY</t>
+  </si>
+  <si>
     <t>EXCEPT</t>
   </si>
   <si>
-    <t>黄色：表示已维护</t>
-  </si>
-  <si>
-    <t>ADVISED</t>
-  </si>
-  <si>
     <t>EXC</t>
   </si>
   <si>
-    <t>无填充：新增词/词组</t>
-  </si>
-  <si>
-    <t>APCH</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>APV</t>
-  </si>
-  <si>
     <t>WHEN</t>
   </si>
   <si>
-    <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>FOLLOWING CONDITIONS</t>
-  </si>
-  <si>
-    <t>AVBL</t>
-  </si>
-  <si>
-    <t>FLW LIMITATIONS</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>IN CASE OF</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>ARR/DEP</t>
-  </si>
-  <si>
-    <t>CLSD</t>
-  </si>
-  <si>
-    <t>CNL</t>
-  </si>
-  <si>
-    <t>REOPENING RESERVED</t>
-  </si>
-  <si>
-    <t>DAMAGED</t>
-  </si>
-  <si>
-    <t>ALL FLIGHT OPERATIONS</t>
-  </si>
-  <si>
-    <t>DECREASE</t>
-  </si>
-  <si>
-    <t>FALSE INDICATIONS</t>
-  </si>
-  <si>
-    <t>DECREASED</t>
-  </si>
-  <si>
-    <t>OPERATIONS ARE GRANTED</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>ARR WITH</t>
-  </si>
-  <si>
-    <t>DETERIORATES</t>
-  </si>
-  <si>
-    <t>JUSTIFIABLE</t>
-  </si>
-  <si>
-    <t>DISPLACED</t>
-  </si>
-  <si>
-    <t>SPECIAL PERMISSION</t>
-  </si>
-  <si>
-    <t>DOWNGRADED</t>
-  </si>
-  <si>
-    <t>OPS ON</t>
-  </si>
-  <si>
-    <t>LOWERED</t>
-  </si>
-  <si>
-    <t>RMK</t>
-  </si>
-  <si>
-    <t>FLTCK</t>
-  </si>
-  <si>
-    <t>RESTRICTIANS</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>HLDG</t>
-  </si>
-  <si>
-    <t>INSTALLED</t>
-  </si>
-  <si>
-    <t>JOINTS</t>
-  </si>
-  <si>
-    <t>LIMITED</t>
-  </si>
-  <si>
-    <t>LOCATED</t>
-  </si>
-  <si>
-    <t>LTD</t>
-  </si>
-  <si>
-    <t>MARKING</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t>MISSING</t>
-  </si>
-  <si>
-    <t>NARROWED</t>
-  </si>
-  <si>
-    <t>OPENED</t>
-  </si>
-  <si>
-    <t>OPERATE</t>
-  </si>
-  <si>
-    <t>OPERATING</t>
-  </si>
-  <si>
-    <t>OPR</t>
-  </si>
-  <si>
-    <t>PERMITTED</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>PROHIBITED</t>
-  </si>
-  <si>
-    <t>PROVIDED</t>
-  </si>
-  <si>
-    <t>REDUCED</t>
-  </si>
-  <si>
-    <t>REMAINING</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>RESTRICTED</t>
-  </si>
-  <si>
-    <t>SLIPPERY</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>SUPERSEDED</t>
-  </si>
-  <si>
-    <t>TURN</t>
-  </si>
-  <si>
-    <t>U/S</t>
-  </si>
-  <si>
-    <t>UNAVAILABLE</t>
-  </si>
-  <si>
-    <t>UNGROOVED</t>
-  </si>
-  <si>
-    <t>UNLIT</t>
-  </si>
-  <si>
-    <t>UNSERVICEABLE</t>
-  </si>
-  <si>
-    <t>UNSTABLE</t>
-  </si>
-  <si>
-    <t>UNUSABLE</t>
-  </si>
-  <si>
-    <t>USABLE</t>
-  </si>
-  <si>
-    <t>USED</t>
-  </si>
-  <si>
-    <t>VHHH</t>
-  </si>
-  <si>
-    <t>WITHDRAWN</t>
-  </si>
-  <si>
-    <t>ARE REQ</t>
-  </si>
-  <si>
-    <t>ARE REQUIRED</t>
-  </si>
-  <si>
-    <t>IS BELOW</t>
-  </si>
-  <si>
-    <t>IS CNL</t>
-  </si>
-  <si>
-    <t>IS PERMITTED</t>
-  </si>
-  <si>
-    <t>IS PROHIBITED</t>
-  </si>
-  <si>
-    <t>IS RECOMMENDED</t>
-  </si>
-  <si>
-    <t>IS USED</t>
-  </si>
-  <si>
-    <t>MUST OBTAIN</t>
-  </si>
-  <si>
-    <t>MUST PERFORM</t>
-  </si>
-  <si>
-    <t>NOT ALLOWED</t>
-  </si>
-  <si>
-    <t>NOT AUTH</t>
-  </si>
-  <si>
-    <t>NOT AUTHORIZATION</t>
-  </si>
-  <si>
-    <t>NOT AVAILABLE</t>
-  </si>
-  <si>
-    <t>NOT AVBL</t>
-  </si>
-  <si>
-    <t>NOT OPR</t>
-  </si>
-  <si>
-    <t>NOT PERMITTED</t>
-  </si>
-  <si>
-    <t>NOT PROVIDED</t>
-  </si>
-  <si>
-    <t>NOT STD</t>
-  </si>
-  <si>
-    <t>NOT USEABLE</t>
-  </si>
-  <si>
-    <t>SHALL USED</t>
-  </si>
-  <si>
-    <t>STRENGTH DECREASED</t>
-  </si>
-  <si>
-    <t>STRENGTH LOWERED</t>
-  </si>
-  <si>
-    <t>SWITCHED OFF</t>
-  </si>
-  <si>
-    <t>TEMPO MOVED</t>
-  </si>
-  <si>
-    <t>TEMPO SHUTDOWN</t>
-  </si>
-  <si>
-    <t>WILL FOLLOW</t>
-  </si>
-  <si>
-    <t>WILL VACATE</t>
-  </si>
-  <si>
-    <t>CAN BE REACTIVATED</t>
-  </si>
-  <si>
-    <t>CAN BE USED</t>
-  </si>
-  <si>
-    <t>COULD BE USE</t>
-  </si>
-  <si>
-    <t>DO NOT USE</t>
-  </si>
-  <si>
-    <t>EVERY SECOND WORK</t>
-  </si>
-  <si>
-    <t>EVERY SECOND WORKING</t>
-  </si>
-  <si>
-    <t>MAY BE RADIATING</t>
-  </si>
-  <si>
-    <t>OUT OF SER</t>
-  </si>
-  <si>
-    <t>OUT OF SERVICE</t>
-  </si>
-  <si>
-    <t>SHALL BE USED</t>
-  </si>
-  <si>
-    <t>SHALL NOT BE USED</t>
-  </si>
-  <si>
-    <t>LIABLE TO BE SLIPPERY</t>
-  </si>
-  <si>
-    <t>WAS CARRIED OUT</t>
-  </si>
-  <si>
-    <t>WILL BE CLOSED</t>
-  </si>
-  <si>
-    <t>WILL BE NOTIFIED</t>
-  </si>
-  <si>
-    <t>WILL BE USED</t>
-  </si>
-  <si>
-    <t>IS ONLY PERMITTED</t>
-  </si>
-  <si>
-    <t>IS CNL AND VHHH</t>
-  </si>
-  <si>
-    <t>NO TOUCH AND GO</t>
-  </si>
-  <si>
-    <t>NOT BE USED</t>
-  </si>
-  <si>
-    <t>START OF TKOF AND MARKED</t>
-  </si>
-  <si>
-    <t>WILL NOT BE AVBL</t>
-  </si>
-  <si>
-    <t>APCH OR STRAIGHT-OUT</t>
-  </si>
-  <si>
-    <t>TAXI ONLY</t>
-  </si>
-  <si>
-    <t>UNDER MAINTENANCE</t>
-  </si>
-  <si>
-    <t>PART DAMAGED</t>
-  </si>
-  <si>
-    <t>WILL TAKE PLACE</t>
-  </si>
-  <si>
-    <t>WILL NOT BE ACCEPTED</t>
-  </si>
-  <si>
-    <t>ENTITY</t>
-  </si>
-  <si>
-    <t>RWY</t>
-  </si>
-  <si>
-    <t>RUNWAY</t>
-  </si>
-  <si>
-    <t>LIGHTS</t>
-  </si>
-  <si>
-    <t>RCLL</t>
-  </si>
-  <si>
-    <t>REDL</t>
-  </si>
-  <si>
-    <t>ILS CAT</t>
-  </si>
-  <si>
-    <t>ILS RWY</t>
-  </si>
-  <si>
-    <t>ILS RUNWAY</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>FLT CLBR</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>NOTAM</t>
-  </si>
-  <si>
     <t>ONLY</t>
-  </si>
-  <si>
-    <t>RULES</t>
-  </si>
-  <si>
-    <t>FORMAT</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>source</t>
   </si>
   <si>
     <r>
@@ -551,6 +575,154 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?P&lt;action&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FOR|TO|FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?P&lt;entity_supply&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -563,6 +735,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0}</t>
@@ -572,6 +745,7 @@
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -581,6 +755,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -590,6 +765,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>?P&lt;action&gt;</t>
@@ -599,6 +775,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -608,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -617,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -638,6 +817,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0}</t>
@@ -647,6 +827,7 @@
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -656,6 +837,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -665,6 +847,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>?P&lt;reason&gt;</t>
@@ -674,6 +857,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -683,6 +867,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -692,6 +877,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -713,6 +899,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0}</t>
@@ -722,6 +909,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)(?P&lt;limit&gt;.*)</t>
@@ -743,6 +931,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>FOR</t>
@@ -752,6 +941,7 @@
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -761,6 +951,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -770,6 +961,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>?P&lt;limit&gt;</t>
@@ -779,6 +971,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -788,6 +981,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -797,6 +991,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ONLY</t>
@@ -806,6 +1001,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -827,6 +1023,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ONLY FOR</t>
@@ -836,6 +1033,7 @@
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -845,6 +1043,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -854,6 +1053,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>?P&lt;limit&gt;</t>
@@ -863,6 +1063,7 @@
         <sz val="11"/>
         <color rgb="FFD16969"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -872,6 +1073,7 @@
         <sz val="11"/>
         <color rgb="FFD7BA7D"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -881,6 +1083,390 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TKOF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TKOF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?P&lt;limit&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ONLY.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -902,6 +1488,7 @@
         <sz val="11"/>
         <color rgb="FF569CD6"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0}</t>
@@ -911,6 +1498,7 @@
         <sz val="11"/>
         <color rgb="FFCE9178"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)(?P&lt;source&gt;.*)</t>
@@ -918,166 +1506,574 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">EXC </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>(?=</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^DUE TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?P&lt;reason&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> THE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF569CD6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;action&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?P&lt;entity&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RWY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RWY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RWY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RUNWAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RUNWAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RUNWAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?P&lt;limit&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>.</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>*</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(?=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;entity_supply&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNDER FOLLOWING CONDITIONS</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1090,6 +2086,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1101,6 +2098,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1111,9 +2109,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1142,6 +2154,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1150,31 +2168,98 @@
       <sz val="11"/>
       <color rgb="FFD7BA7D"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFD4D4D4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF569CD6"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFD16969"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD16969"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1184,51 +2269,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="仿宋"/>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="仿宋"/>
+      <sz val="8"/>
+      <color rgb="FFD16969"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="仿宋"/>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFCE9178"/>
-      <name val="仿宋"/>
+      <sz val="8"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="仿宋"/>
+      <sz val="8"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1317,31 +2385,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,13 +2752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -1699,1222 +2767,1340 @@
     <col min="6" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>165</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>167</v>
-      </c>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>29</v>
-      </c>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
-      <c r="A19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
-      <c r="A21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
-      <c r="A22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="12"/>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
-      <c r="A23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
-      <c r="A24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="12"/>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
-      <c r="A25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
-      <c r="A27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
-      <c r="A31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="16.5">
-      <c r="A32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
-      <c r="A33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="12"/>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
-      <c r="A34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="12"/>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="16.5">
-      <c r="A35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="16.5">
-      <c r="A36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="12"/>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="16.5">
-      <c r="A37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
-      <c r="A38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="12"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="12"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5">
-      <c r="A40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="12"/>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="12"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="16.5">
-      <c r="A41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="12"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
-      <c r="A42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="12"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
-      <c r="A43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="12"/>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="12"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="16.5">
-      <c r="A44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="12"/>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="12"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="12"/>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="12"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
-      <c r="A46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="12"/>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="12"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
-      <c r="A47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="12"/>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="12"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="16.5">
-      <c r="A48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="12"/>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="12"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
-      <c r="A49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="12"/>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="12"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
-      <c r="A50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="12"/>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="12"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="16.5">
-      <c r="A51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="12"/>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="12"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="16.5">
-      <c r="A52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="12"/>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="12"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
-      <c r="A53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="12"/>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="12"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="16.5">
-      <c r="A54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="12"/>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="12"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="16.5">
-      <c r="A55" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="12"/>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="12"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
-      <c r="A56" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="12"/>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="12"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="16.5">
-      <c r="A57" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="12"/>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="12"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="16.5">
-      <c r="A58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="12"/>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="12"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="16.5">
-      <c r="A59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="12"/>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="12"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="16.5">
-      <c r="A60" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="12"/>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="12"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="16.5">
-      <c r="A61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="12"/>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="12"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="16.5">
-      <c r="A62" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="12"/>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="12"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="16.5">
-      <c r="A63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="12"/>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="12"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="16.5">
-      <c r="A64" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="12"/>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="12"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="16.5">
-      <c r="A65" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="12"/>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="12"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="16.5">
-      <c r="A66" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="12"/>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="12"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="16.5">
-      <c r="A67" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="12"/>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="12"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" ht="16.5">
-      <c r="A68" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="12"/>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="12"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="16.5">
-      <c r="A69" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="12"/>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="12"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" ht="16.5">
-      <c r="A70" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="12"/>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="12"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" ht="16.5">
-      <c r="A71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="12"/>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="12"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" ht="16.5">
-      <c r="A72" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="12"/>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="12"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" ht="16.5">
-      <c r="A73" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="12"/>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="12"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" ht="16.5">
-      <c r="A74" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="12"/>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="12"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="16.5">
-      <c r="A75" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="12"/>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="12"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" ht="16.5">
-      <c r="A76" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="12"/>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="12"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="16.5">
-      <c r="A77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="12"/>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="12"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="16.5">
-      <c r="A78" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="12"/>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="12"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" ht="16.5">
-      <c r="A79" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="12"/>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="12"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" ht="16.5">
-      <c r="A80" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="12"/>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="12"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="16.5">
-      <c r="A81" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="12"/>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="12"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" ht="16.5">
-      <c r="A82" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="12"/>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="12"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" ht="16.5">
-      <c r="A83" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="12"/>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="12"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" ht="16.5">
-      <c r="A84" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="12"/>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="12"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" ht="16.5">
-      <c r="A85" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="12"/>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="12"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" ht="16.5">
-      <c r="A86" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="12"/>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="12"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="16.5">
-      <c r="A87" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="12"/>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="12"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" ht="16.5">
-      <c r="A88" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="12"/>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="12"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="16.5">
-      <c r="A89" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="12"/>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="12"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" ht="16.5">
-      <c r="A90" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="12"/>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="12"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" ht="16.5">
-      <c r="A91" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="12"/>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="12"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" ht="16.5">
-      <c r="A92" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="12"/>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="12"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="16.5">
-      <c r="A93" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="12"/>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="12"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" ht="16.5">
-      <c r="A94" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="12"/>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="12"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" ht="16.5">
-      <c r="A95" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="12"/>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="12"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" ht="16.5">
-      <c r="A96" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="12"/>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="12"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="16.5">
-      <c r="A97" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="12"/>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="12"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" ht="16.5">
-      <c r="A98" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="12"/>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="12"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" ht="16.5">
-      <c r="A99" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="12"/>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="12"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="16.5">
-      <c r="A100" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="12"/>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="12"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" ht="16.5">
-      <c r="A101" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="12"/>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="12"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" ht="16.5">
-      <c r="A102" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="12"/>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="12"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="16.5">
-      <c r="A103" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="12"/>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="12"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" ht="16.5">
-      <c r="A104" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" s="12"/>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="12"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="16.5">
-      <c r="A105" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="12"/>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="12"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" ht="16.5">
-      <c r="A106" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B106" s="12"/>
+    <row r="106" spans="1:5" ht="15">
+      <c r="A106" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="12"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="16.5">
-      <c r="A107" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" s="12"/>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="12"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" ht="16.5">
-      <c r="A108" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B108" s="12"/>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="12"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="16.5">
-      <c r="A109" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109" s="12"/>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="12"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" ht="16.5">
-      <c r="A110" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B110" s="12"/>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="12"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" ht="16.5">
-      <c r="A111" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" s="12"/>
+    <row r="111" spans="1:5" ht="15">
+      <c r="A111" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="12"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="16.5">
-      <c r="A112" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" s="12"/>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="12"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" ht="16.5">
-      <c r="A113" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B113" s="12"/>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="12"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" ht="16.5">
-      <c r="A114" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" s="12"/>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="12"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" ht="16.5">
-      <c r="A115" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="12"/>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="12"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" ht="16.5">
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B116" s="1"/>
+      <c r="C116" s="12"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" ht="16.5">
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B117" s="1"/>
+      <c r="C117" s="12"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" ht="16.5">
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B118" s="1"/>
+      <c r="C118" s="12"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" ht="16.5">
+    <row r="119" spans="1:5" ht="15">
       <c r="B119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" ht="16.5">
+    <row r="120" spans="1:5" ht="15">
       <c r="B120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" ht="16.5">
+    <row r="121" spans="1:5" ht="15">
       <c r="B121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" ht="16.5">
+    <row r="122" spans="1:5" ht="15">
       <c r="B122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" ht="16.5">
+    <row r="123" spans="1:5" ht="15">
       <c r="B123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="16.5">
+    <row r="124" spans="1:5" ht="15">
       <c r="B124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" ht="16.5">
+    <row r="125" spans="1:5" ht="15">
       <c r="B125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" ht="16.5">
+    <row r="126" spans="1:5" ht="15">
       <c r="B126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" ht="16.5">
+    <row r="127" spans="1:5" ht="15">
       <c r="B127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" ht="16.5">
+    <row r="128" spans="1:5" ht="15">
       <c r="B128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="2:5" ht="16.5">
+    <row r="129" spans="2:5" ht="15">
       <c r="B129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="2:5" ht="16.5">
+    <row r="130" spans="2:5" ht="15">
       <c r="B130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" ht="16.5">
+    <row r="131" spans="2:5" ht="15">
       <c r="B131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:5" ht="16.5">
+    <row r="132" spans="2:5" ht="15">
       <c r="B132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:5" ht="16.5">
+    <row r="133" spans="2:5" ht="15">
       <c r="B133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:5" ht="16.5">
+    <row r="134" spans="2:5" ht="15">
       <c r="B134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5">
+    <row r="135" spans="2:5" ht="15">
       <c r="B135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="2:5" ht="16.5">
+    <row r="136" spans="2:5" ht="15">
       <c r="B136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="2:5" ht="16.5">
+    <row r="137" spans="2:5" ht="15">
       <c r="B137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="2:5" ht="16.5">
+    <row r="138" spans="2:5" ht="15">
       <c r="B138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5">
+    <row r="139" spans="2:5" ht="15">
       <c r="B139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="2:5" ht="16.5">
+    <row r="140" spans="2:5" ht="15">
       <c r="B140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" ht="16.5">
+    <row r="141" spans="2:5" ht="15">
       <c r="B141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5">
+    <row r="142" spans="2:5" ht="15">
       <c r="B142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="2:5" ht="16.5">
+    <row r="143" spans="2:5" ht="15">
       <c r="B143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="2:5" ht="16.5">
+    <row r="144" spans="2:5" ht="15">
       <c r="B144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:5" ht="16.5">
+    <row r="145" spans="2:5" ht="15">
       <c r="B145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5">
+    <row r="146" spans="2:5" ht="15">
       <c r="B146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="2:5" ht="16.5">
+    <row r="147" spans="2:5" ht="15">
       <c r="B147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="2:5" ht="16.5">
+    <row r="148" spans="2:5" ht="15">
       <c r="B148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:5" ht="16.5">
+    <row r="149" spans="2:5" ht="15">
       <c r="B149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="2:5" ht="16.5">
+    <row r="150" spans="2:5" ht="15">
       <c r="B150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="2:5" ht="16.5">
+    <row r="151" spans="2:5" ht="15">
       <c r="B151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="2:5" ht="16.5">
+    <row r="152" spans="2:5" ht="15">
       <c r="B152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:5" ht="16.5">
+    <row r="153" spans="2:5" ht="15">
       <c r="B153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="2:5" ht="16.5">
+    <row r="154" spans="2:5" ht="15">
       <c r="B154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="2:5" ht="16.5">
+    <row r="155" spans="2:5" ht="15">
       <c r="B155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="2:5" ht="16.5">
+    <row r="156" spans="2:5" ht="15">
       <c r="B156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5">
+    <row r="157" spans="2:5" ht="15">
       <c r="B157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="2:5" ht="16.5">
+    <row r="158" spans="2:5" ht="15">
       <c r="B158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" ht="16.5">
+    <row r="159" spans="2:5" ht="15">
       <c r="B159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="2:5" ht="16.5">
+    <row r="160" spans="2:5" ht="15">
       <c r="B160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5">
+    <row r="161" spans="2:5" ht="15">
       <c r="B161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="2:5" ht="16.5">
+    <row r="162" spans="2:5" ht="15">
       <c r="B162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="2:5" ht="16.5">
+    <row r="163" spans="2:5" ht="15">
       <c r="B163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5">
+    <row r="164" spans="2:5" ht="15">
       <c r="B164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="2:5" ht="16.5">
+    <row r="165" spans="2:5" ht="15">
       <c r="B165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="2:5" ht="16.5">
+    <row r="166" spans="2:5" ht="15">
       <c r="B166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="2:5" ht="16.5">
+    <row r="167" spans="2:5" ht="15">
       <c r="B167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5">
+    <row r="168" spans="2:5" ht="15">
       <c r="B168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="2:5" ht="16.5">
+    <row r="169" spans="2:5" ht="15">
       <c r="B169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="2:5" ht="16.5">
+    <row r="170" spans="2:5" ht="15">
       <c r="B170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="2:5" ht="16.5">
+    <row r="171" spans="2:5" ht="15">
       <c r="B171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="2:5" ht="16.5">
+    <row r="172" spans="2:5" ht="15">
       <c r="B172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="2:5" ht="16.5">
+    <row r="173" spans="2:5" ht="15">
       <c r="B173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="2:5" ht="16.5">
+    <row r="174" spans="2:5" ht="15">
       <c r="B174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="2:5" ht="16.5">
+    <row r="175" spans="2:5" ht="15">
       <c r="B175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="2:5" ht="16.5">
+    <row r="176" spans="2:5" ht="15">
       <c r="B176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="2:5" ht="16.5">
+    <row r="177" spans="2:5" ht="15">
       <c r="B177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="2:5" ht="16.5">
+    <row r="178" spans="2:5" ht="15">
       <c r="B178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5">
+    <row r="179" spans="2:5" ht="15">
       <c r="B179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="2:5" ht="16.5">
+    <row r="180" spans="2:5" ht="15">
       <c r="B180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="2:5" ht="16.5">
+    <row r="181" spans="2:5" ht="15">
       <c r="B181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="2:5" ht="16.5">
+    <row r="182" spans="2:5" ht="15">
       <c r="B182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5">
+    <row r="183" spans="2:5" ht="15">
       <c r="B183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="2:5" ht="16.5">
+    <row r="184" spans="2:5" ht="15">
       <c r="B184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="2:5" ht="16.5">
+    <row r="185" spans="2:5" ht="15">
       <c r="B185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5">
+    <row r="186" spans="2:5" ht="15">
       <c r="B186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="2:5" ht="16.5">
+    <row r="187" spans="2:5" ht="15">
       <c r="B187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="2:5" ht="16.5">
+    <row r="188" spans="2:5" ht="15">
       <c r="B188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="2:5" ht="16.5">
+    <row r="189" spans="2:5" ht="15">
       <c r="B189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5">
+    <row r="190" spans="2:5" ht="15">
       <c r="B190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="2:5" ht="16.5">
+    <row r="191" spans="2:5" ht="15">
       <c r="B191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="2:5" ht="16.5">
+    <row r="192" spans="2:5" ht="15">
       <c r="B192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="2:5" ht="16.5">
+    <row r="193" spans="2:5" ht="15">
       <c r="B193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="2:5" ht="16.5">
+    <row r="194" spans="2:5" ht="15">
       <c r="B194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="2:5" ht="16.5">
+    <row r="195" spans="2:5" ht="15">
       <c r="B195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="2:5" ht="16.5">
+    <row r="196" spans="2:5" ht="15">
       <c r="B196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="2:5" ht="16.5">
+    <row r="197" spans="2:5" ht="15">
       <c r="B197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="2:5" ht="16.5">
+    <row r="198" spans="2:5" ht="15">
       <c r="B198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="2:5" ht="16.5">
+    <row r="199" spans="2:5" ht="15">
       <c r="B199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="2:5" ht="16.5">
-      <c r="B200" s="1"/>
-      <c r="E200" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:A118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="86" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -2922,122 +4108,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="13" t="s">
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="5">
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="26" width="14" customWidth="1"/>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="26" width="14" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3048,7 +4265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="11" width="12" customWidth="1"/>
@@ -3056,71 +4273,71 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>137</v>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>139</v>
+      <c r="A4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>140</v>
+      <c r="A5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>141</v>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>142</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>143</v>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>144</v>
+      <c r="A9" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>145</v>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>146</v>
+      <c r="A11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>147</v>
+      <c r="A12" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>148</v>
+      <c r="A13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3131,49 +4348,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
+      <c r="A1" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
+      <c r="A3" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+      <c r="A4" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>149</v>
+      <c r="A6" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NOTAM_table.xlsx
+++ b/NOTAM_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workstation\data\NOTAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B0F33C-A8FE-462D-B3A9-7302BC8BA274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE04F1-135F-4E06-ABE5-7376FCCBF8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words_list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="limit_list" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">words_list!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">words_list!$A$1:$A$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="207">
   <si>
     <t>ACTION</t>
   </si>
@@ -517,9 +517,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>(?P&lt;entity&gt;.*?)(?P&lt;action&gt;{0})(?=[,:.]|( -))(?P&lt;limit&gt;.*)</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>limit</t>
   </si>
   <si>
-    <t>(?=(-.*(ARR|DEP)(/*)(ARR|DEP)*)|((TKOF)(/*)(TKOF|LDG)*))(?P&lt;limit&gt;.*ONLY.*)</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -586,89 +580,6 @@
         <charset val="134"/>
       </rPr>
       <t>*?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(?=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?P&lt;action&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD16969"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD7BA7D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -2904,6 +2815,114 @@
   </si>
   <si>
     <t>IRREGULATIES</t>
+  </si>
+  <si>
+    <t>(?P&lt;entity&gt;.*?)(?P&lt;action&gt;{0})([,:.]|( -))(?P&lt;limit&gt;.*)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?P&lt;action&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARE PROHIBITED</t>
+  </si>
+  <si>
+    <t>(?=(-.*(ARR|DEP)(/*)(ARR|DEP)*)|((TKOF|LDG)(/*)(TKOF|LDG)*))(?P&lt;limit&gt;.*ONLY.*)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF WEATHER</t>
+  </si>
+  <si>
+    <t>NOT AUTHORIZED</t>
+  </si>
+  <si>
+    <t>NO GROUND TAXI</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?P&lt;action&gt;{0})(?= (FOR|FROM|ALL|ON|FM ))(?P&lt;entity_supply&gt;.*?)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3205,7 +3224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3269,10 +3288,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3615,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3649,10 +3683,10 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3663,10 +3697,10 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3676,18 +3710,20 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
       <c r="B5" s="17" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3696,924 +3732,925 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>39</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>40</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>190</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="3"/>
+      <c r="A36" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="3"/>
+      <c r="A37" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3"/>
+      <c r="A39" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="B42" s="3"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>192</v>
+      <c r="A52" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B52" s="3"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="3"/>
+      <c r="A55" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>67</v>
+      <c r="A58" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="B58" s="3"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="3"/>
+      <c r="A59" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B61" s="3"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B62" s="3"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B64" s="3"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="B67" s="3"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>83</v>
+      <c r="A74" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B74" s="3"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B76" s="3"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="3"/>
+      <c r="A79" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>92</v>
+      <c r="A83" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B83" s="3"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B85" s="3"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B88" s="3"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="3"/>
+      <c r="A89" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>102</v>
+      <c r="A93" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B93" s="3"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="3"/>
+      <c r="A97" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>108</v>
+      <c r="A99" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="B99" s="3"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="3"/>
+      <c r="A100" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B101" s="3"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="3"/>
+      <c r="A103" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B104" s="3"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B105" s="3"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>115</v>
+      <c r="A106" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="B106" s="3"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>116</v>
+      <c r="A107" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="B107" s="3"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="B108" s="3"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
-        <v>117</v>
+      <c r="A109" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B109" s="3"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>118</v>
+      <c r="A110" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="B110" s="3"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>119</v>
+      <c r="A111" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="B111" s="3"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>120</v>
+      <c r="A112" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
-        <v>121</v>
+      <c r="A113" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="B113" s="3"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>122</v>
+      <c r="A114" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="B114" s="3"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
-        <v>123</v>
+      <c r="A115" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B115" s="3"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>124</v>
+      <c r="A116" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="B116" s="3"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
-        <v>125</v>
+      <c r="A117" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="B117" s="3"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
-        <v>126</v>
+      <c r="A118" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="B118" s="3"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119" s="1"/>
+      <c r="A119" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="3"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" s="1"/>
+      <c r="A120" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="3"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="1"/>
+      <c r="A121" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="3"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="1"/>
+      <c r="A122" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="3"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>132</v>
+      <c r="A124" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125" s="1"/>
+      <c r="A125" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="3"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" s="1"/>
+      <c r="A126" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" s="3"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B127" s="1"/>
+      <c r="A127" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="3"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="1"/>
+      <c r="A128" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="3"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" s="3"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B130" s="1"/>
+      <c r="A130" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" s="3"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B131" s="1"/>
+      <c r="A131" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="3"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
-        <v>200</v>
-      </c>
       <c r="B132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="B133" s="1"/>
       <c r="E133" s="1"/>
     </row>
@@ -4801,16 +4838,12 @@
       <c r="B179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B181" s="1"/>
-      <c r="E181" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A131" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C131">
+      <sortCondition ref="A1:A131"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4821,7 +4854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4843,10 +4878,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -4854,7 +4889,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>150</v>
@@ -4865,7 +4900,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>150</v>
@@ -4876,10 +4911,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -4887,10 +4922,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4898,21 +4933,21 @@
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>163</v>
+      <c r="A8" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4920,10 +4955,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -4944,7 +4979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4965,7 +5002,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>158</v>
@@ -4976,7 +5013,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>150</v>
@@ -5016,18 +5053,18 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>151</v>
@@ -5035,10 +5072,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5059,7 +5096,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>153</v>
@@ -5187,17 +5224,17 @@
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
@@ -5207,7 +5244,7 @@
     </row>
     <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
